--- a/component/upload/excel13.xlsx
+++ b/component/upload/excel13.xlsx
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,6 +440,41 @@
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/component/upload/excel13.xlsx
+++ b/component/upload/excel13.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="16275" windowHeight="8520"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="20115" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,41 +440,6 @@
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
